--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3946.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3946.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.206215908882721</v>
+        <v>0.8650946021080017</v>
       </c>
       <c r="B1">
-        <v>2.044606220830275</v>
+        <v>1.15207040309906</v>
       </c>
       <c r="C1">
-        <v>5.968735536440563</v>
+        <v>5.391704559326172</v>
       </c>
       <c r="D1">
-        <v>4.110936556917686</v>
+        <v>1.492438912391663</v>
       </c>
       <c r="E1">
-        <v>1.462029582563554</v>
+        <v>0.8688130974769592</v>
       </c>
     </row>
   </sheetData>
